--- a/biology/Écologie/Savane_mésopotamienne_du_cône_sud/Savane_mésopotamienne_du_cône_sud.xlsx
+++ b/biology/Écologie/Savane_mésopotamienne_du_cône_sud/Savane_mésopotamienne_du_cône_sud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Savane_m%C3%A9sopotamienne_du_c%C3%B4ne_sud</t>
+          <t>Savane_mésopotamienne_du_cône_sud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Savane mésopotamienne du cône sud est une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des prairies et savanes inondées. Elle appartient à l'écozone néotropicale dans la phytodivision du Paraná.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Savane_m%C3%A9sopotamienne_du_c%C3%B4ne_sud</t>
+          <t>Savane_mésopotamienne_du_cône_sud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette région naturelle du Cône sud couvre une partie de la Mésopotamie en Argentine, délimitée à l'est par le rio Uruguay et partagée entre les provinces de Misiones et Corrientes.
-Au début des années 1990, la plus grande partie de la région a été drainée pour favoriser l'élevage bovin. En raison de la croissance de la population, souvent déplacée de l'agglomération surpeuplée de Buenos Aires, et de l'agriculture, l'environnement naturel est très menacé[1].
+Au début des années 1990, la plus grande partie de la région a été drainée pour favoriser l'élevage bovin. En raison de la croissance de la population, souvent déplacée de l'agglomération surpeuplée de Buenos Aires, et de l'agriculture, l'environnement naturel est très menacé.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Savane_m%C3%A9sopotamienne_du_c%C3%B4ne_sud</t>
+          <t>Savane_mésopotamienne_du_cône_sud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aires protégées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Esteros del Iberá, qui confinent à la zone de la savane mésopotamienne, sont une zone humide protégée par la convention de Ramsar depuis 2002.
 Le parc national Mburucuyá a été créé en 2001.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Savane_m%C3%A9sopotamienne_du_c%C3%B4ne_sud</t>
+          <t>Savane_mésopotamienne_du_cône_sud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Flore de la savane mésopotamienne
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Savane_m%C3%A9sopotamienne_du_c%C3%B4ne_sud</t>
+          <t>Savane_mésopotamienne_du_cône_sud</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette région abrite de nombreuses espèces d'oiseaux rares et menacés dont le sporophile de Narosky, sous-espèce endémique du sporophile des marais, le tinamou tacheté et le tinamou isabelle, l'évêque indigo, le cacholote brun, l'ibis à face nue, le hibou strié et l'engoulevent à queue en ciseaux. Parmi les mammifères, on rencontre le renard des savanes (zorro de monte), le renard d'Aszara, le coati roux, le raton crabier, la tayra, la loutre géante, l'ocelot, le margay, le jaguar, le cerf des marais, le rat d'eau sud-américain (en), le cobaye. Dans les zones subsistantes de forêt riveraine à palmiers le long du fleuve Uruguay, on trouve encore le nandou, le capybara, le lièvre des Pampas et le crotale[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette région abrite de nombreuses espèces d'oiseaux rares et menacés dont le sporophile de Narosky, sous-espèce endémique du sporophile des marais, le tinamou tacheté et le tinamou isabelle, l'évêque indigo, le cacholote brun, l'ibis à face nue, le hibou strié et l'engoulevent à queue en ciseaux. Parmi les mammifères, on rencontre le renard des savanes (zorro de monte), le renard d'Aszara, le coati roux, le raton crabier, la tayra, la loutre géante, l'ocelot, le margay, le jaguar, le cerf des marais, le rat d'eau sud-américain (en), le cobaye. Dans les zones subsistantes de forêt riveraine à palmiers le long du fleuve Uruguay, on trouve encore le nandou, le capybara, le lièvre des Pampas et le crotale.
 	Faune terrestre de la Mésopotamie argentine
 			Couple de cerfs des marais dans les Esteros del Iberá en 2011.
 			Capybaras dans la province de Corrientes en 2013.
